--- a/pickle/rolling_corr_excel_target_index_KOSPI_simulation_term_type_2_window_size_24.xlsx
+++ b/pickle/rolling_corr_excel_target_index_KOSPI_simulation_term_type_2_window_size_24.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>KOSPI_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>KOSPI_CNY/USD</t>
   </si>
   <si>
-    <t>KOSPI_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>KOSPI_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>KOSPI_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>KOSPI_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_OECD 소비자물가</t>
   </si>
   <si>
-    <t>KOSPI_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>KOSPI_두바이유가</t>
   </si>
   <si>
-    <t>KOSPI_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>KOSPI_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>KOSPI_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>KOSPI_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>KOSPI_미국 REER</t>
   </si>
   <si>
-    <t>KOSPI_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>KOSPI_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>KOSPI_발틱 해운임지수</t>
   </si>
   <si>
-    <t>KOSPI_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>KOSPI_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>KOSPI_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>KOSPI_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>KOSPI_유로존 Core CPI</t>
   </si>
   <si>
-    <t>KOSPI_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>KOSPI_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>KOSPI_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>KOSPI_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>KOSPI_일본 ESI</t>
   </si>
   <si>
-    <t>KOSPI_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_일본 REER</t>
   </si>
   <si>
-    <t>KOSPI_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>KOSPI_중국 M1 YoY</t>
   </si>
   <si>
-    <t>KOSPI_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>KOSPI_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>KOSPI_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,913 +1893,763 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
@@ -2882,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2894,16 +2669,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -2915,40 +2690,40 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>3</v>
@@ -2957,403 +2732,403 @@
         <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
         <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
         <v>3</v>
       </c>
       <c r="AK3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
         <v>2</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
         <v>2</v>
       </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
         <v>2</v>
       </c>
-      <c r="BJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK3" t="n">
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
         <v>2</v>
       </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BR3" t="n">
+      <c r="BV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE3" t="n">
         <v>2</v>
       </c>
-      <c r="BS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" t="n">
+      <c r="DF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DK3" t="n">
         <v>2</v>
       </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CD3" t="n">
+      <c r="DL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED3" t="n">
         <v>2</v>
       </c>
-      <c r="CE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CG3" t="n">
+      <c r="EE3" t="n">
         <v>2</v>
       </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
+      <c r="EF3" t="n">
         <v>2</v>
       </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
+      <c r="EG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" t="n">
         <v>2</v>
       </c>
-      <c r="CU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV3" t="n">
+      <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EL3" t="n">
         <v>2</v>
       </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="n">
+      <c r="EM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
         <v>2</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS3" t="n">
+      <c r="EQ3" t="n">
         <v>2</v>
       </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
         <v>2</v>
       </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES3" t="n">
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
         <v>2</v>
       </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
+      <c r="EY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
       <c r="FC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FF3" t="n">
         <v>3</v>
@@ -3362,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FI3" t="n">
         <v>3</v>
@@ -3371,34 +3146,34 @@
         <v>3</v>
       </c>
       <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
         <v>2</v>
       </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
       <c r="FM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>3</v>
       </c>
       <c r="FO3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FQ3" t="n">
         <v>3</v>
       </c>
       <c r="FR3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
         <v>0</v>
@@ -3410,208 +3185,208 @@
         <v>1</v>
       </c>
       <c r="FX3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
         <v>2</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
         <v>2</v>
       </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
         <v>2</v>
       </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
+      <c r="IF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
         <v>2</v>
       </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
       <c r="IJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL3" t="n">
         <v>2</v>
       </c>
       <c r="IM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IN3" t="n">
         <v>3</v>
@@ -3620,909 +3395,759 @@
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8949480864454572</v>
+        <v>-0.8697420456611074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9111339240720573</v>
+        <v>0.8625641108568314</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8928539269015782</v>
+        <v>0.806019713266708</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7544299281046889</v>
+        <v>0.6133033843305324</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6613572748588932</v>
+        <v>0.4923647817382547</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4840054486795816</v>
+        <v>-0.7192594137220087</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9525267110787419</v>
+        <v>0.8090117801734792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9093344102976274</v>
+        <v>0.8167966591562927</v>
       </c>
       <c r="J4" t="n">
-        <v>0.908757938251913</v>
+        <v>0.2598076662191623</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9389212437301107</v>
+        <v>-0.2180933788311856</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9264047560504386</v>
+        <v>-0.4803955191406526</v>
       </c>
       <c r="M4" t="n">
-        <v>0.839885439437961</v>
+        <v>0.9071515455762</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9312490021718354</v>
+        <v>-0.8414234023362467</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8995758428051783</v>
+        <v>0.9167359763067823</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2893238270266401</v>
+        <v>0.9156578708445338</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4236533841396601</v>
+        <v>0.8528105620452086</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8510165941953344</v>
+        <v>0.3719649483128371</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9488496091951989</v>
+        <v>0.6207555395498563</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8436652407750254</v>
+        <v>-0.2980451339845676</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9386507080275438</v>
+        <v>0.8508164544490283</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9424822056240494</v>
+        <v>0.5055830248399262</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8819832609754825</v>
+        <v>0.766603912201456</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3824179258466208</v>
+        <v>0.6265280937908045</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6495340140663001</v>
+        <v>-0.4448465458720492</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.4743537877082202</v>
+        <v>0.8730769631489684</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8780869603896783</v>
+        <v>0.6034031945178192</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7656787182725401</v>
+        <v>0.8508717639136596</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8319501110621459</v>
+        <v>0.4427434394272359</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7302882761652475</v>
+        <v>0.8885565832110807</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.3266840904402214</v>
+        <v>0.6608729030572479</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9178378981720119</v>
+        <v>0.7491905855965585</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6159410959461821</v>
+        <v>0.5876259633123676</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8688554123275571</v>
+        <v>0.513705541579506</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5242848515920586</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.922558453540446</v>
+        <v>-0.2753137114599587</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6891456491772865</v>
+        <v>0.9765489918800184</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7226197217847177</v>
+        <v>-0.2731612906511703</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6801672245194939</v>
+        <v>-0.8122250488491422</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.4199541561025368</v>
+        <v>-0.6775729869133319</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0.8549894056288262</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.4007542881024211</v>
+        <v>-0.1763729126830008</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9880264891146775</v>
+        <v>-0.7757397832011023</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3708661889490265</v>
+        <v>-0.5854431360356726</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.7963845918301976</v>
+        <v>0.9530282177089864</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.658828638777921</v>
+        <v>0.9173778666682117</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9127364780935331</v>
+        <v>0.8977873796770376</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.122440164631371</v>
+        <v>0.9223746307953004</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.8216471426874546</v>
+        <v>0.9453007058517404</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.6199660175183271</v>
+        <v>0.9438425342700651</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9723346794252331</v>
+        <v>0.9057343332352524</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9657091324768133</v>
+        <v>0.8825010002053827</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9589861427052517</v>
+        <v>0.9629782540262296</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9514186592483727</v>
+        <v>0.8569923359193038</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9573043033427061</v>
+        <v>0.7379090291609808</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9639290647466717</v>
+        <v>0.6451720418596281</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9650457346042773</v>
+        <v>0.3696188968729156</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9541288226335299</v>
+        <v>0.8503210291491601</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9791774487309689</v>
+        <v>-0.6356914496482329</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.9121510967758619</v>
+        <v>0.6401074579017697</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9294639558210172</v>
+        <v>-0.3233692061963359</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.7313654715809778</v>
+        <v>0.8088387439086744</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.4759424864009432</v>
+        <v>0.8053851840064576</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.4947104704023335</v>
+        <v>-0.5269828903647701</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9332368855663136</v>
+        <v>-0.7464895223594598</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8935150745068912</v>
+        <v>0.8569230904635433</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9406066268436367</v>
+        <v>0.6662365630548804</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.5661141811967294</v>
+        <v>0.8524353868985768</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.7306366685203367</v>
+        <v>0.339238285569598</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.3845102168982501</v>
+        <v>0.8405678554888752</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8043710340656021</v>
+        <v>0.8183344399611742</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8839273638780241</v>
+        <v>0.67454413987919</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.3631113856249883</v>
+        <v>0.9546279534302016</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.7432453613200689</v>
+        <v>0.930894943829316</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9473511708624482</v>
+        <v>0.9149341932608533</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9425309359208124</v>
+        <v>-0.7742645105801518</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9274457312406028</v>
+        <v>-0.6897033985608053</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.696966350158701</v>
+        <v>0.6947410819210597</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9643086786039375</v>
+        <v>0.8945854321576185</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.88182280554602</v>
+        <v>0.8062265992257426</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.8633327116721616</v>
+        <v>0.7704536584681995</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.9674742012814628</v>
+        <v>0.4771836676550999</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.9510716165216936</v>
+        <v>0.6373236668292367</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.9334432727689581</v>
+        <v>0.8738900496628438</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8969270799619962</v>
+        <v>-0.3419491084007582</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.8170304934939637</v>
+        <v>0.5196090350919227</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.7508246311912035</v>
+        <v>0.5742893603476386</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.9252869572408694</v>
+        <v>-0.491289769214364</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.9037006206993271</v>
+        <v>0.7497784666362776</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.8176222104457064</v>
+        <v>-0.411865341456111</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.5377141586566476</v>
+        <v>0.6241205172228657</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.6555639982088577</v>
+        <v>0.8178297409149398</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.8037752985176345</v>
+        <v>-0.4293946596330578</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.7565652072099732</v>
+        <v>0.8216498223264606</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.6462376766236086</v>
+        <v>0.8015355356960757</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.6893993249036127</v>
+        <v>-0.1858191514849839</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.3934430549869781</v>
+        <v>0.8705748584765166</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.7620628697745894</v>
+        <v>0.5543022712371525</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.1312137813006383</v>
+        <v>0.8016820501197576</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.7084090793640309</v>
+        <v>0.809424219717524</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9308329586439714</v>
+        <v>0.836113838402065</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.251587122325973</v>
+        <v>0.6843829303916731</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.9023485719681436</v>
+        <v>-0.8350541279088465</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9436620891173956</v>
+        <v>0.6436398338273722</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.1584225846327174</v>
+        <v>0.8020499553804036</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9129677502096081</v>
+        <v>0.9278032832049756</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.3332203487318646</v>
+        <v>0.4500086055378608</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8655124364645085</v>
+        <v>0.6123580443373546</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.8514091788256994</v>
+        <v>0.6603343339781267</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8471969519631593</v>
+        <v>0.451937043207251</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9221690930873531</v>
+        <v>0.612806242716161</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6770543090421489</v>
+        <v>0.07070257403934119</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7015525538631338</v>
+        <v>0.6374220703680209</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.7682588305921209</v>
+        <v>-0.8354136809761048</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9599504598545546</v>
+        <v>0.1393972139334207</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.5600277526187266</v>
+        <v>-0.5811768678174838</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7224873140298573</v>
+        <v>-0.8863813401696276</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7165915361377586</v>
+        <v>0.7047126173128235</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1688953606040371</v>
+        <v>0.2715772185472084</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.7670019386578694</v>
+        <v>-0.6921838089440295</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.7945719833507057</v>
+        <v>0.8178297409149398</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8110065133412384</v>
+        <v>0.8025238867188729</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2866454696017281</v>
+        <v>0.9105967180512788</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7338393673022966</v>
+        <v>0.677436405592488</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.9068339938563095</v>
+        <v>0.6967213124655025</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.2198119907128246</v>
+        <v>0.6119189902369082</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.4974242309693243</v>
+        <v>0.883632516959633</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.9329587531384859</v>
+        <v>-0.9354251097669862</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.7614518570070119</v>
+        <v>0.8384894160788727</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.9469296053463232</v>
+        <v>0.7484231941533048</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.229807993707211</v>
+        <v>0.9224375686244272</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.6299011715425046</v>
+        <v>0.7995833385186929</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.9343171296599979</v>
+        <v>0.3763886896543792</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9308329586439714</v>
+        <v>-0.641245810981888</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9283156083086214</v>
+        <v>-0.4815993900327174</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.9537518436611333</v>
+        <v>-0.1840939405050522</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.7664538660472805</v>
+        <v>0.7230251656761043</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.8950136924633704</v>
+        <v>0.8641802959407989</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.5854239581160057</v>
+        <v>0.6146854486035261</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9515605785915763</v>
+        <v>0.7288134043050463</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9394819754504224</v>
+        <v>0.8809379715069968</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9533151827139295</v>
+        <v>0.8078646090945016</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7630436476094102</v>
+        <v>0.7555285479899596</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9693617269865951</v>
+        <v>0.7537611198595844</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.8736158675292325</v>
+        <v>-0.8079804220235508</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.5243263218109069</v>
+        <v>0.8044726084323505</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7204506561011382</v>
+        <v>0.1414974486560412</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.8361093438598589</v>
+        <v>0.752671604874485</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.1827895915262809</v>
+        <v>-0.8815619879480362</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.8924463552127541</v>
+        <v>-0.6816891354623476</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9357751332489036</v>
+        <v>-0.8725863085852698</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.633786942356391</v>
+        <v>0.6705962489133482</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.7947957668396525</v>
+        <v>0.6146747066277671</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9390858094468995</v>
+        <v>0.7229279545323982</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8400089426892997</v>
+        <v>-0.4676084567318012</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8169688339132503</v>
+        <v>0.836602551692911</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8535124111940822</v>
+        <v>0.69911239094588</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.888223986012447</v>
+        <v>-0.7947549867834913</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9581255731346641</v>
+        <v>-0.2180933788311856</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.09612885810592887</v>
+        <v>0.8208809482411338</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.8795119764711893</v>
+        <v>0.7924638541040699</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.849674524584126</v>
+        <v>0.4791072322973765</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.8222440368065398</v>
+        <v>-0.5914627291670672</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.8908166528025501</v>
+        <v>0.8007818372998431</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.727745228556908</v>
+        <v>0.3836865819006732</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7076211560142394</v>
+        <v>0.2835780405899169</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8001309245921113</v>
+        <v>-0.3290650902568714</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9176889184936639</v>
+        <v>0.3409285031271034</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.5373033629803516</v>
+        <v>0.9338229663843027</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.8366097795250512</v>
+        <v>0.9287738264662857</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.771156816258365</v>
+        <v>-0.6562965360278209</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.7951765760287199</v>
+        <v>-0.9376419770825367</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.4236533841396601</v>
+        <v>0.7252260415428413</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.9252816227471231</v>
+        <v>0.5828046586265936</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.7945271195038601</v>
+        <v>-0.2930325428214459</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5947813720826317</v>
+        <v>0.7656043529363624</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.5961495950807025</v>
+        <v>0.9338229663843027</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8639777649064055</v>
+        <v>0.7702617427919147</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.2743061373538406</v>
+        <v>0.7283516659903212</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.337604806844352</v>
+        <v>0.7462675719796937</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.2980883816191545</v>
+        <v>-0.5264234247404405</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.955719979704598</v>
+        <v>-0.2604337227326565</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.7196148845950925</v>
+        <v>-0.8700086739004261</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.4066951741411611</v>
+        <v>0.6546398266664095</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9529894500030091</v>
+        <v>0.7266056366868148</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.9332529133501537</v>
+        <v>-0.162647831966141</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.5866174066882645</v>
+        <v>0.8890813276540047</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.8855873832984371</v>
+        <v>0.8465350183189051</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.9317409578482713</v>
+        <v>0.4234538135457142</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.5857286567055739</v>
+        <v>0.8751432250487894</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.9013971940117177</v>
+        <v>-0.6040363219341309</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.6639843847176763</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7469596654617868</v>
+        <v>-0.2445153644803125</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9529894500030091</v>
+        <v>0.2520439259153531</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.5873579966513621</v>
+        <v>0.8760525714144757</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.9056237661191926</v>
+        <v>0.8682243156913159</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.7850791632610923</v>
+        <v>0.2243612025226024</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7617417271165696</v>
+        <v>-0.3412787187354662</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.7554629235307089</v>
+        <v>0</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.2520433663236902</v>
+        <v>0</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.9356851536253171</v>
+        <v>0.6948801002383649</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.7852608112461383</v>
+        <v>0.6936083437943419</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.9016620289138606</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8176574207240366</v>
+        <v>0.1932840027439577</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.7712866743691438</v>
+        <v>0.1175921729821369</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.4057297765135143</v>
+        <v>0.4642784632986819</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9348802739012948</v>
+        <v>0.6627300778172704</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.950855589640088</v>
+        <v>-0.2750056027263802</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.3465926805726708</v>
+        <v>0.7988289779418947</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.9374278244077424</v>
+        <v>0.4812818923877842</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7698731587702212</v>
+        <v>-0.3534301043657962</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>-0.7141463356867799</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.5019151233955833</v>
+        <v>0.598684683907221</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.3860531149124145</v>
+        <v>-0.498391132859122</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9180266448774571</v>
+        <v>0.7840379880671408</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.8605796351550533</v>
+        <v>0.8814022507823644</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.899784133591752</v>
+        <v>-0.7541310381849783</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.6429326166386222</v>
+        <v>0.3489551901716814</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.5858726681853025</v>
+        <v>0.6107113891765922</v>
       </c>
       <c r="HL4" t="n">
-        <v>0</v>
+        <v>0.7961308216085538</v>
       </c>
       <c r="HM4" t="n">
-        <v>0</v>
+        <v>0.6022400509176555</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7787563083391039</v>
+        <v>0.1426139306720667</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7515008984441962</v>
+        <v>-0.1989678061960548</v>
       </c>
       <c r="HP4" t="n">
-        <v>0</v>
+        <v>-0.4019227631937127</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.2505527347475527</v>
+        <v>0.160557557169431</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.295263521275594</v>
+        <v>-0.7228724529195948</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.4830551190146989</v>
+        <v>0.8114997583848593</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.8217933562969327</v>
+        <v>-0.4017076843322182</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.4152438801958607</v>
+        <v>0.7156874970600985</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8709415405900871</v>
+        <v>0.5655679283594666</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.8920888390161736</v>
+        <v>0.7643285487520484</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.9256931076040439</v>
+        <v>0.7487090989838048</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.5222175761921504</v>
+        <v>0.6380780545372846</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8924519407762346</v>
+        <v>-0.4381811252336857</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6137585871245402</v>
+        <v>-0.5046407722872982</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.378707343055261</v>
+        <v>-0.2045542032088411</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6846858665893371</v>
+        <v>-0.6310834748029693</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.7706305099608554</v>
+        <v>-0.7821681874797386</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.3252836164124535</v>
+        <v>0.8573593913358954</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.8783600121538412</v>
+        <v>0.05442151036146226</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9535103806909911</v>
+        <v>-0.8862392899281161</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.76406164201672</v>
+        <v>-0.6083986547157307</v>
       </c>
       <c r="II4" t="n">
-        <v>0.5672151838469607</v>
+        <v>0.8573593913358954</v>
       </c>
       <c r="IJ4" t="n">
-        <v>0.3504743197761728</v>
+        <v>0.7541319111756148</v>
       </c>
       <c r="IK4" t="n">
-        <v>-0.45192683852943</v>
+        <v>-0.250874002689817</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.7135744726371759</v>
+        <v>0.3265607494704524</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.1832765203238488</v>
+        <v>-0.4952046535156598</v>
       </c>
       <c r="IN4" t="n">
-        <v>-0.08114321604414627</v>
+        <v>-0.8929122588269626</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.449488492136353</v>
+        <v>0.8878489379934389</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1080997254473139</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.7679065832409404</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9070904961162829</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4277064681394411</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.822091778552604</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.6811007293952773</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8245395749194864</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8355363482757766</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.8012208730840945</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.4497926781732013</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5231084741827811</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1600890714508</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.6945839486056453</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.8123096196339512</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.8395828635838778</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2234656174187115</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.9414086137924574</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.594953014874107</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.8395828635838778</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8227860457404576</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.3550471175192397</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3764265344694792</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>-0.3611356162574495</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.8515961729888866</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9094320198508726</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.8615193295938621</v>
+        <v>0.8112967169000067</v>
       </c>
     </row>
   </sheetData>
